--- a/convert_reference.xlsx
+++ b/convert_reference.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hengzhang/Dropbox/My Projects/Xinfeng Private/TrawindShippingCostForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{659F0634-B28B-8D4F-8F1C-FD978C148FBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE080237-CD77-9646-904A-58B3B5F25F11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D25288CB-C147-9841-AC6A-082A07B9F4DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D25288CB-C147-9841-AC6A-082A07B9F4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="tmp_1" localSheetId="1">Sheet2!$A$1:$C$103</definedName>
+    <definedName name="tmp_1" localSheetId="2">Sheet3!$A$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,11 +41,19 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{C46EA962-6E7B-4B4D-90DE-441B77B379CF}" name="tmp1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/hengzhang/Dropbox/My Projects/Xinfeng Private/TrawindShippingCostForecast/tmp.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <t>vsl_company</t>
   </si>
@@ -391,6 +401,108 @@
   </si>
   <si>
     <t>vsl_name</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>宁波宝达</t>
+  </si>
+  <si>
+    <t>宁波海兆</t>
+  </si>
+  <si>
+    <t>宁波华埠</t>
+  </si>
+  <si>
+    <t>宁波江甬</t>
+  </si>
+  <si>
+    <t>椒江三山再东</t>
+  </si>
+  <si>
+    <t>宁波镇海</t>
+  </si>
+  <si>
+    <t>宁波北仑永港</t>
+  </si>
+  <si>
+    <t>宁波大榭</t>
+  </si>
+  <si>
+    <t>象山</t>
+  </si>
+  <si>
+    <t>椒江八达</t>
+  </si>
+  <si>
+    <t>玉环</t>
+  </si>
+  <si>
+    <t>椒江大华</t>
+  </si>
+  <si>
+    <t>椒江再东</t>
+  </si>
+  <si>
+    <t>椒江三山八达</t>
+  </si>
+  <si>
+    <t>椒江三山大华</t>
+  </si>
+  <si>
+    <t>椒江</t>
+  </si>
+  <si>
+    <t>port_list</t>
+  </si>
+  <si>
+    <t>NingBoDaoDa</t>
+  </si>
+  <si>
+    <t>NingBoHaiZhao</t>
+  </si>
+  <si>
+    <t>NingBoHuaPu</t>
+  </si>
+  <si>
+    <t>NingBoJiangYong</t>
+  </si>
+  <si>
+    <t>JiaoJiangSSZD</t>
+  </si>
+  <si>
+    <t>NingBoZhenHai</t>
+  </si>
+  <si>
+    <t>NingBoBLYG</t>
+  </si>
+  <si>
+    <t>NingBoDaXie</t>
+  </si>
+  <si>
+    <t>XiangShan</t>
+  </si>
+  <si>
+    <t>JiaoJiangBaDa</t>
+  </si>
+  <si>
+    <t>YuHuan</t>
+  </si>
+  <si>
+    <t>JiaoJiangDaHua</t>
+  </si>
+  <si>
+    <t>JiaoJiangZaiDong</t>
+  </si>
+  <si>
+    <t>JiaoJiangSSBD</t>
+  </si>
+  <si>
+    <t>JiaoJiangSSDH</t>
+  </si>
+  <si>
+    <t>JiaoJiang</t>
   </si>
 </sst>
 </file>
@@ -447,6 +559,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tmp_1" connectionId="1" xr16:uid="{51414445-933D-7942-9B05-6288CA37B969}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tmp_1" connectionId="2" xr16:uid="{52BEC74D-4EB6-5F46-8245-01F2743E44CF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,26 +862,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F46F488-E2AB-2845-A83B-771661E31CF6}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -778,8 +898,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -792,8 +918,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -806,8 +938,14 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -820,8 +958,14 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -834,96 +978,168 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -931,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -939,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -947,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -955,7 +1171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -963,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -971,7 +1187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>35</v>
       </c>
@@ -979,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -987,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -995,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -1003,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -1011,7 +1227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -1027,7 +1243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -1035,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -1613,6 +1829,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2764,4 +2981,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7C6404-EF97-004C-A007-5A0C6FE1E4AE}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>